--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6858</x:v>
+        <x:v>6859</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6482</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13340</x:v>
+        <x:v>13341</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -466,10 +466,10 @@
         <x:v>5853</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2680</x:v>
+        <x:v>2679</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8533</x:v>
+        <x:v>8532</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5481</x:v>
+        <x:v>5490</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5132</x:v>
+        <x:v>5148</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10613</x:v>
+        <x:v>10638</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14818</x:v>
+        <x:v>14819</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8480</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23298</x:v>
+        <x:v>23299</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6859</x:v>
+        <x:v>6861</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6482</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13341</x:v>
+        <x:v>13343</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8551</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5752</x:v>
+        <x:v>5754</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14303</x:v>
+        <x:v>14305</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5490</x:v>
+        <x:v>5495</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5148</x:v>
+        <x:v>5169</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10638</x:v>
+        <x:v>10664</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3165</x:v>
+        <x:v>3166</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3153</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6318</x:v>
+        <x:v>6319</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -480,10 +480,10 @@
         <x:v>5495</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5169</x:v>
+        <x:v>5173</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10664</x:v>
+        <x:v>10668</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6861</x:v>
+        <x:v>6859</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6482</x:v>
+        <x:v>6481</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13343</x:v>
+        <x:v>13340</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8551</x:v>
+        <x:v>8550</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5754</x:v>
+        <x:v>5753</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14305</x:v>
+        <x:v>14303</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>5495</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5173</x:v>
+        <x:v>5177</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10668</x:v>
+        <x:v>10672</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14819</x:v>
+        <x:v>14828</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8480</x:v>
+        <x:v>8481</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23299</x:v>
+        <x:v>23309</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14828</x:v>
+        <x:v>14830</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8481</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23309</x:v>
+        <x:v>23311</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,10 +449,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8550</x:v>
+        <x:v>8549</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5753</x:v>
+        <x:v>5754</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>14303</x:v>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,10 +435,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6859</x:v>
+        <x:v>6860</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6481</x:v>
+        <x:v>6480</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>13340</x:v>
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8549</x:v>
+        <x:v>8550</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5754</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14303</x:v>
+        <x:v>14304</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5495</x:v>
+        <x:v>5496</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5177</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10672</x:v>
+        <x:v>10673</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -494,10 +494,10 @@
         <x:v>14830</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8481</x:v>
+        <x:v>8482</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23311</x:v>
+        <x:v>23312</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2144</x:v>
+        <x:v>2145</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2060</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4204</x:v>
+        <x:v>4205</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5496</x:v>
+        <x:v>5497</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5177</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10673</x:v>
+        <x:v>10674</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14830</x:v>
+        <x:v>14829</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8482</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23312</x:v>
+        <x:v>23311</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3166</x:v>
+        <x:v>3167</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3153</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6319</x:v>
+        <x:v>6320</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6638</x:v>
+        <x:v>6639</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5701</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12339</x:v>
+        <x:v>12340</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8550</x:v>
+        <x:v>8552</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5754</x:v>
+        <x:v>5759</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14304</x:v>
+        <x:v>14311</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14829</x:v>
+        <x:v>14831</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8482</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23311</x:v>
+        <x:v>23313</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2145</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2060</x:v>
+        <x:v>2061</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4205</x:v>
+        <x:v>4206</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8552</x:v>
+        <x:v>8549</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5759</x:v>
+        <x:v>5760</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14311</x:v>
+        <x:v>14309</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8549</x:v>
+        <x:v>8553</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5760</x:v>
+        <x:v>5763</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14309</x:v>
+        <x:v>14316</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6860</x:v>
+        <x:v>6862</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6480</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13340</x:v>
+        <x:v>13342</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8553</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5763</x:v>
+        <x:v>5768</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14316</x:v>
+        <x:v>14321</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5853</x:v>
+        <x:v>5854</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2679</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8532</x:v>
+        <x:v>8533</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6862</x:v>
+        <x:v>6863</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6480</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13342</x:v>
+        <x:v>13343</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5854</x:v>
+        <x:v>5853</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2679</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8533</x:v>
+        <x:v>8532</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6863</x:v>
+        <x:v>6862</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6480</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13343</x:v>
+        <x:v>13342</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5497</x:v>
+        <x:v>5498</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5177</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10674</x:v>
+        <x:v>10675</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6862</x:v>
+        <x:v>6864</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6480</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13342</x:v>
+        <x:v>13344</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8553</x:v>
+        <x:v>8552</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5768</x:v>
+        <x:v>5770</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14321</x:v>
+        <x:v>14322</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>5498</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5177</x:v>
+        <x:v>5176</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10675</x:v>
+        <x:v>10674</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14831</x:v>
+        <x:v>14835</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8482</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23313</x:v>
+        <x:v>23317</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2145</x:v>
+        <x:v>2144</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2061</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4206</x:v>
+        <x:v>4205</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>6639</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5701</x:v>
+        <x:v>5702</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12340</x:v>
+        <x:v>12341</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8552</x:v>
+        <x:v>8550</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5770</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14322</x:v>
+        <x:v>14320</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14835</x:v>
+        <x:v>14833</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8482</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23317</x:v>
+        <x:v>23315</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6864</x:v>
+        <x:v>6863</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6480</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13344</x:v>
+        <x:v>13343</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8550</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5770</x:v>
+        <x:v>5771</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14320</x:v>
+        <x:v>14321</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5498</x:v>
+        <x:v>5494</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5176</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10674</x:v>
+        <x:v>10670</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14833</x:v>
+        <x:v>14834</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8482</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23315</x:v>
+        <x:v>23316</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3167</x:v>
+        <x:v>3166</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3153</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6320</x:v>
+        <x:v>6319</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>4273</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3869</x:v>
+        <x:v>3870</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>8142</x:v>
+        <x:v>8143</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -438,10 +438,10 @@
         <x:v>6863</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6480</x:v>
+        <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13343</x:v>
+        <x:v>13342</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5494</x:v>
+        <x:v>5497</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5176</x:v>
+        <x:v>5184</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10670</x:v>
+        <x:v>10681</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6863</x:v>
+        <x:v>6864</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13342</x:v>
+        <x:v>13343</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8550</x:v>
+        <x:v>8551</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5771</x:v>
+        <x:v>5772</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14321</x:v>
+        <x:v>14323</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,10 +477,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5497</x:v>
+        <x:v>5496</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5184</x:v>
+        <x:v>5185</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>10681</x:v>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,10 +449,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8551</x:v>
+        <x:v>8550</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5772</x:v>
+        <x:v>5773</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>14323</x:v>
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14834</x:v>
+        <x:v>14835</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8482</x:v>
+        <x:v>8483</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23316</x:v>
+        <x:v>23318</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6639</x:v>
+        <x:v>6645</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5702</x:v>
+        <x:v>5711</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12341</x:v>
+        <x:v>12356</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>4273</x:v>
+        <x:v>4274</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>3870</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>8143</x:v>
+        <x:v>8144</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8550</x:v>
+        <x:v>8551</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5773</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14323</x:v>
+        <x:v>14324</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5496</x:v>
+        <x:v>5497</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5185</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10681</x:v>
+        <x:v>10682</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3166</x:v>
+        <x:v>3164</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3153</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6319</x:v>
+        <x:v>6317</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -452,10 +452,10 @@
         <x:v>8551</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5773</x:v>
+        <x:v>5774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14324</x:v>
+        <x:v>14325</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14835</x:v>
+        <x:v>14834</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8483</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23318</x:v>
+        <x:v>23317</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14834</x:v>
+        <x:v>14835</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8483</x:v>
+        <x:v>8485</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23317</x:v>
+        <x:v>23320</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6864</x:v>
+        <x:v>6866</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13343</x:v>
+        <x:v>13345</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14835</x:v>
+        <x:v>14836</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8485</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23320</x:v>
+        <x:v>23321</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6866</x:v>
+        <x:v>6867</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13345</x:v>
+        <x:v>13346</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8551</x:v>
+        <x:v>8550</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14325</x:v>
+        <x:v>14324</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14836</x:v>
+        <x:v>14837</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8485</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23321</x:v>
+        <x:v>23322</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2144</x:v>
+        <x:v>2145</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2061</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4205</x:v>
+        <x:v>4206</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6645</x:v>
+        <x:v>6639</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5711</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12356</x:v>
+        <x:v>12350</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>4274</x:v>
+        <x:v>4270</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>3870</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>8144</x:v>
+        <x:v>8140</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8550</x:v>
+        <x:v>8551</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14324</x:v>
+        <x:v>14325</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5853</x:v>
+        <x:v>5854</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2679</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8532</x:v>
+        <x:v>8533</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>6639</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5711</x:v>
+        <x:v>5712</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12350</x:v>
+        <x:v>12351</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5497</x:v>
+        <x:v>5502</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5185</x:v>
+        <x:v>5201</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10682</x:v>
+        <x:v>10703</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -480,10 +480,10 @@
         <x:v>5502</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5201</x:v>
+        <x:v>5206</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10703</x:v>
+        <x:v>10708</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14837</x:v>
+        <x:v>14838</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8485</x:v>
+        <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23322</x:v>
+        <x:v>23326</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5502</x:v>
+        <x:v>5506</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5206</x:v>
+        <x:v>5221</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10708</x:v>
+        <x:v>10727</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6867</x:v>
+        <x:v>6868</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13346</x:v>
+        <x:v>13347</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5506</x:v>
+        <x:v>5437</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5221</x:v>
+        <x:v>5217</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10727</x:v>
+        <x:v>10654</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8551</x:v>
+        <x:v>8552</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14325</x:v>
+        <x:v>14326</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5437</x:v>
+        <x:v>5438</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5217</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10654</x:v>
+        <x:v>10655</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3164</x:v>
+        <x:v>3165</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3153</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6317</x:v>
+        <x:v>6318</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8552</x:v>
+        <x:v>8554</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5774</x:v>
+        <x:v>5775</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14326</x:v>
+        <x:v>14329</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6868</x:v>
+        <x:v>6869</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13347</x:v>
+        <x:v>13348</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8554</x:v>
+        <x:v>8551</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5775</x:v>
+        <x:v>5774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14329</x:v>
+        <x:v>14325</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2145</x:v>
+        <x:v>2146</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2061</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4206</x:v>
+        <x:v>4207</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6869</x:v>
+        <x:v>6868</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13348</x:v>
+        <x:v>13347</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8551</x:v>
+        <x:v>8548</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14325</x:v>
+        <x:v>14322</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>5438</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5217</x:v>
+        <x:v>5218</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10655</x:v>
+        <x:v>10656</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14838</x:v>
+        <x:v>14837</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23326</x:v>
+        <x:v>23325</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2146</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2061</x:v>
+        <x:v>2063</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4207</x:v>
+        <x:v>4209</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6868</x:v>
+        <x:v>6869</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13347</x:v>
+        <x:v>13348</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8548</x:v>
+        <x:v>8547</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5774</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14322</x:v>
+        <x:v>14321</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14837</x:v>
+        <x:v>14838</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23325</x:v>
+        <x:v>23326</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14838</x:v>
+        <x:v>14841</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23326</x:v>
+        <x:v>23329</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6869</x:v>
+        <x:v>6870</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13348</x:v>
+        <x:v>13349</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6639</x:v>
+        <x:v>6640</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5712</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12351</x:v>
+        <x:v>12352</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6870</x:v>
+        <x:v>6871</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13349</x:v>
+        <x:v>13350</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5438</x:v>
+        <x:v>5439</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5218</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10656</x:v>
+        <x:v>10657</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14841</x:v>
+        <x:v>14839</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23329</x:v>
+        <x:v>23327</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>3165</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3153</x:v>
+        <x:v>3156</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6318</x:v>
+        <x:v>6321</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -438,10 +438,10 @@
         <x:v>6871</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6479</x:v>
+        <x:v>6478</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13350</x:v>
+        <x:v>13349</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -438,10 +438,10 @@
         <x:v>6871</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6478</x:v>
+        <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13349</x:v>
+        <x:v>13350</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8547</x:v>
+        <x:v>8531</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5774</x:v>
+        <x:v>5775</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14321</x:v>
+        <x:v>14306</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5439</x:v>
+        <x:v>5438</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5218</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10657</x:v>
+        <x:v>10656</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14839</x:v>
+        <x:v>14840</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23327</x:v>
+        <x:v>23328</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8531</x:v>
+        <x:v>8529</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5775</x:v>
+        <x:v>5778</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14306</x:v>
+        <x:v>14307</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5438</x:v>
+        <x:v>5440</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5218</x:v>
+        <x:v>5217</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10656</x:v>
+        <x:v>10657</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2146</x:v>
+        <x:v>2147</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2063</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4209</x:v>
+        <x:v>4210</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8529</x:v>
+        <x:v>8530</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5778</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14307</x:v>
+        <x:v>14308</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14840</x:v>
+        <x:v>14838</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23328</x:v>
+        <x:v>23326</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14838</x:v>
+        <x:v>14839</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23326</x:v>
+        <x:v>23327</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6871</x:v>
+        <x:v>6872</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13350</x:v>
+        <x:v>13351</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8530</x:v>
+        <x:v>8531</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5778</x:v>
+        <x:v>5779</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14308</x:v>
+        <x:v>14310</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14839</x:v>
+        <x:v>14840</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23327</x:v>
+        <x:v>23328</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6872</x:v>
+        <x:v>6871</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6479</x:v>
+        <x:v>6478</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13351</x:v>
+        <x:v>13349</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5440</x:v>
+        <x:v>5439</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5217</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10657</x:v>
+        <x:v>10656</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8531</x:v>
+        <x:v>8528</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5779</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14310</x:v>
+        <x:v>14307</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6871</x:v>
+        <x:v>6873</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6478</x:v>
+        <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13349</x:v>
+        <x:v>13352</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8528</x:v>
+        <x:v>8529</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5779</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14307</x:v>
+        <x:v>14308</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14840</x:v>
+        <x:v>14842</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23328</x:v>
+        <x:v>23330</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6873</x:v>
+        <x:v>6874</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6479</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13352</x:v>
+        <x:v>13353</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14842</x:v>
+        <x:v>14840</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23330</x:v>
+        <x:v>23328</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>3165</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3156</x:v>
+        <x:v>3155</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6321</x:v>
+        <x:v>6320</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>4270</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3870</x:v>
+        <x:v>3872</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>8140</x:v>
+        <x:v>8142</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8529</x:v>
+        <x:v>8528</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5779</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14308</x:v>
+        <x:v>14307</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5439</x:v>
+        <x:v>5492</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5217</x:v>
+        <x:v>5228</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10656</x:v>
+        <x:v>10720</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -452,10 +452,10 @@
         <x:v>8528</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5779</x:v>
+        <x:v>5778</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14307</x:v>
+        <x:v>14306</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14840</x:v>
+        <x:v>14839</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23328</x:v>
+        <x:v>23327</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8528</x:v>
+        <x:v>8527</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5778</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14306</x:v>
+        <x:v>14305</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -466,10 +466,10 @@
         <x:v>5854</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2679</x:v>
+        <x:v>2678</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8533</x:v>
+        <x:v>8532</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14839</x:v>
+        <x:v>14840</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23327</x:v>
+        <x:v>23328</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6874</x:v>
+        <x:v>6876</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6479</x:v>
+        <x:v>6481</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13353</x:v>
+        <x:v>13357</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5492</x:v>
+        <x:v>5493</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5228</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10720</x:v>
+        <x:v>10721</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14840</x:v>
+        <x:v>14843</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23328</x:v>
+        <x:v>23331</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8527</x:v>
+        <x:v>8522</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5778</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14305</x:v>
+        <x:v>14300</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5493</x:v>
+        <x:v>5492</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5228</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10721</x:v>
+        <x:v>10720</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14843</x:v>
+        <x:v>14842</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23331</x:v>
+        <x:v>23330</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8522</x:v>
+        <x:v>8523</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5778</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14300</x:v>
+        <x:v>14301</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8523</x:v>
+        <x:v>8521</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5778</x:v>
+        <x:v>5777</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14301</x:v>
+        <x:v>14298</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -466,10 +466,10 @@
         <x:v>5854</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2678</x:v>
+        <x:v>2679</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8532</x:v>
+        <x:v>8533</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14842</x:v>
+        <x:v>14837</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23330</x:v>
+        <x:v>23325</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8521</x:v>
+        <x:v>8520</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5777</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14298</x:v>
+        <x:v>14297</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5492</x:v>
+        <x:v>5493</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5228</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10720</x:v>
+        <x:v>10721</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6876</x:v>
+        <x:v>6875</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6481</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13357</x:v>
+        <x:v>13356</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3165</x:v>
+        <x:v>3166</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3155</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6320</x:v>
+        <x:v>6321</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14837</x:v>
+        <x:v>14838</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8488</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23325</x:v>
+        <x:v>23326</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -463,10 +463,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5854</x:v>
+        <x:v>5855</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2679</x:v>
+        <x:v>2678</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>8533</x:v>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6875</x:v>
+        <x:v>6876</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6481</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13356</x:v>
+        <x:v>13357</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8520</x:v>
+        <x:v>8521</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5777</x:v>
+        <x:v>5778</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14297</x:v>
+        <x:v>14299</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14838</x:v>
+        <x:v>14839</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8488</x:v>
+        <x:v>8489</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23326</x:v>
+        <x:v>23328</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -491,10 +491,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14839</x:v>
+        <x:v>14838</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8489</x:v>
+        <x:v>8490</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>23328</x:v>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -438,10 +438,10 @@
         <x:v>6876</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6481</x:v>
+        <x:v>6480</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13357</x:v>
+        <x:v>13356</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8521</x:v>
+        <x:v>8519</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5778</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14299</x:v>
+        <x:v>14297</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2147</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2063</x:v>
+        <x:v>2064</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4210</x:v>
+        <x:v>4211</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Arrests by Judicial Districts" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Arrests by Judicial Districts" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Judicial District</x:t>
   </x:si>
@@ -26,6 +26,126 @@
   </x:si>
   <x:si>
     <x:t>Grand Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6876</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6480</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13356</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5778</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14296</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5855</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2678</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8533</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10721</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8489</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2147</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5712</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12352</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1584</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2744</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8142</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -34,7 +154,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -84,13 +204,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -99,7 +219,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -107,7 +227,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -402,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -431,143 +551,143 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="n">
-        <x:v>6876</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>6480</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>13356</x:v>
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="n">
-        <x:v>8519</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>5778</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>14297</x:v>
+      <x:c r="D3" s="1" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="n">
-        <x:v>5855</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>2678</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>8533</x:v>
+      <x:c r="A4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="n">
-        <x:v>5493</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>5228</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>10721</x:v>
+      <x:c r="A5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="n">
-        <x:v>14838</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>8490</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>23328</x:v>
+      <x:c r="A6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="n">
-        <x:v>3166</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="n">
-        <x:v>3155</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>6321</x:v>
+      <x:c r="A7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="n">
-        <x:v>2147</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>2064</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>4211</x:v>
+      <x:c r="A8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="A9" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="n">
-        <x:v>6640</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>5712</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>12352</x:v>
+      <x:c r="A9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="n">
-        <x:v>1584</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="n">
-        <x:v>1160</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>2744</x:v>
+      <x:c r="A10" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="A11" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="n">
-        <x:v>4270</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>3872</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>8142</x:v>
+      <x:c r="A11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8518</x:t>
+    <x:t>8519</x:t>
   </x:si>
   <x:si>
     <x:t>5778</x:t>
   </x:si>
   <x:si>
-    <x:t>14296</x:t>
+    <x:t>14297</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14839</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8489</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23328</x:t>
+    <x:t>14837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23327</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -34,10 +34,10 @@
     <x:t>6876</x:t>
   </x:si>
   <x:si>
-    <x:t>6480</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13356</x:t>
+    <x:t>6482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13358</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -46,10 +46,10 @@
     <x:t>8519</x:t>
   </x:si>
   <x:si>
-    <x:t>5778</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14297</x:t>
+    <x:t>5777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14296</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -103,13 +103,13 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2147</x:t>
+    <x:t>2148</x:t>
   </x:si>
   <x:si>
     <x:t>2064</x:t>
   </x:si>
   <x:si>
-    <x:t>4211</x:t>
+    <x:t>4212</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -103,13 +103,13 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2148</x:t>
+    <x:t>2144</x:t>
   </x:si>
   <x:si>
     <x:t>2064</x:t>
   </x:si>
   <x:si>
-    <x:t>4212</x:t>
+    <x:t>4208</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -46,10 +46,10 @@
     <x:t>8519</x:t>
   </x:si>
   <x:si>
-    <x:t>5777</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14296</x:t>
+    <x:t>5776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14295</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14837</x:t>
+    <x:t>14840</x:t>
   </x:si>
   <x:si>
     <x:t>8490</x:t>
   </x:si>
   <x:si>
-    <x:t>23327</x:t>
+    <x:t>23330</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8519</x:t>
+    <x:t>8518</x:t>
   </x:si>
   <x:si>
     <x:t>5776</x:t>
   </x:si>
   <x:si>
-    <x:t>14295</x:t>
+    <x:t>14294</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14840</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8490</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23330</x:t>
+    <x:t>14835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8489</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23324</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8518</x:t>
+    <x:t>8522</x:t>
   </x:si>
   <x:si>
     <x:t>5776</x:t>
   </x:si>
   <x:si>
-    <x:t>14294</x:t>
+    <x:t>14298</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14835</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8489</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23324</x:t>
+    <x:t>14831</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23322</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14831</x:t>
+    <x:t>14833</x:t>
   </x:si>
   <x:si>
     <x:t>8491</x:t>
   </x:si>
   <x:si>
-    <x:t>23322</x:t>
+    <x:t>23324</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>6876</x:t>
+    <x:t>6875</x:t>
   </x:si>
   <x:si>
     <x:t>6482</x:t>
   </x:si>
   <x:si>
-    <x:t>13358</x:t>
+    <x:t>13357</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -67,10 +67,10 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>5493</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5228</x:t>
+    <x:t>5492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5229</x:t>
   </x:si>
   <x:si>
     <x:t>10721</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14833</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23324</x:t>
+    <x:t>14834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23326</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -103,22 +103,22 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2144</x:t>
+    <x:t>2151</x:t>
   </x:si>
   <x:si>
     <x:t>2064</x:t>
   </x:si>
   <x:si>
-    <x:t>4208</x:t>
+    <x:t>4215</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>6640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5712</x:t>
+    <x:t>6639</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5713</x:t>
   </x:si>
   <x:si>
     <x:t>12352</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8522</x:t>
+    <x:t>8521</x:t>
   </x:si>
   <x:si>
     <x:t>5776</x:t>
   </x:si>
   <x:si>
-    <x:t>14298</x:t>
+    <x:t>14297</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14834</x:t>
+    <x:t>14837</x:t>
   </x:si>
   <x:si>
     <x:t>8492</x:t>
   </x:si>
   <x:si>
-    <x:t>23326</x:t>
+    <x:t>23329</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -94,10 +94,10 @@
     <x:t>3166</x:t>
   </x:si>
   <x:si>
-    <x:t>3155</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6321</x:t>
+    <x:t>3156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6322</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -43,10 +43,10 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8521</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5776</x:t>
+    <x:t>8520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5777</x:t>
   </x:si>
   <x:si>
     <x:t>14297</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14837</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8492</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23329</x:t>
+    <x:t>14844</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8494</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23338</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -103,13 +103,13 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2151</x:t>
+    <x:t>2152</x:t>
   </x:si>
   <x:si>
     <x:t>2064</x:t>
   </x:si>
   <x:si>
-    <x:t>4215</x:t>
+    <x:t>4216</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5777</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14297</x:t>
+    <x:t>8518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5778</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14296</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -82,10 +82,10 @@
     <x:t>14844</x:t>
   </x:si>
   <x:si>
-    <x:t>8494</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23338</x:t>
+    <x:t>8495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23339</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5778</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14296</x:t>
+    <x:t>8515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14291</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -118,10 +118,10 @@
     <x:t>6639</x:t>
   </x:si>
   <x:si>
-    <x:t>5713</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12352</x:t>
+    <x:t>5714</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12353</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8515</x:t>
+    <x:t>8516</x:t>
   </x:si>
   <x:si>
     <x:t>5776</x:t>
   </x:si>
   <x:si>
-    <x:t>14291</x:t>
+    <x:t>14292</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -94,10 +94,10 @@
     <x:t>3166</x:t>
   </x:si>
   <x:si>
-    <x:t>3156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6322</x:t>
+    <x:t>3158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6324</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2022.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8516</x:t>
+    <x:t>8515</x:t>
   </x:si>
   <x:si>
     <x:t>5776</x:t>
   </x:si>
   <x:si>
-    <x:t>14292</x:t>
+    <x:t>14291</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14844</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23339</x:t>
+    <x:t>14846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8496</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23342</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
